--- a/data/trans_bre/P52_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,41</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>108,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-29,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>-11,68%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 51,57</t>
+          <t>-1,01; 9,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 15,82</t>
+          <t>-12,7; 3,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 26,47</t>
+          <t>-8,52; 4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 652,28</t>
+          <t>-38,88; 589,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 31,89</t>
+          <t>-62,34; 30,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 135,92</t>
+          <t>-60,47; 99,13</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,57%</t>
+          <t>-31,98%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 21,49</t>
+          <t>-4,25; 6,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 12,34</t>
+          <t>-6,76; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 9,61</t>
+          <t>-19,08; 3,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 64,33</t>
+          <t>-41,54; 157,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 24,84</t>
+          <t>-46,53; 65,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,78; 33,66</t>
+          <t>-77,08; 50,97</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-5,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 17,29</t>
+          <t>-8,1; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 18,84</t>
+          <t>-8,22; 4,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 31,38</t>
+          <t>-7,58; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 32,51</t>
+          <t>-49,16; 67,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 36,92</t>
+          <t>-49,92; 62,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 94,62</t>
+          <t>-54,55; 86,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>62,12%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 31,42</t>
+          <t>-1,29; 7,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 8,3</t>
+          <t>-7,03; 3,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 36,42</t>
+          <t>-0,7; 6,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 78,53</t>
+          <t>-20,31; 185,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 12,81</t>
+          <t>-45,84; 45,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 129,37</t>
+          <t>-11,84; 184,99</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 32,09</t>
+          <t>-2,95; 6,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 14,9</t>
+          <t>-4,64; 5,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 25,93</t>
+          <t>-4,37; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 70,08</t>
+          <t>-41,39; 200,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 21,55</t>
+          <t>-38,04; 82,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 55,61</t>
+          <t>-44,3; 88,68</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,9</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-52,94</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,1</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-28,9%</t>
+          <t>65,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-60,44%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -6,1</t>
+          <t>-1,82; 7,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,51; -13,77</t>
+          <t>-3,29; 2,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 79,39</t>
+          <t>1,35; 5,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -6,1</t>
+          <t>-67,39; 869,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,92; -18,2</t>
+          <t>-74,7; 187,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-12,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 17,2</t>
+          <t>-0,76; 3,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -0,08</t>
+          <t>-3,97; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 14,73</t>
+          <t>-3,42; 2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 38,24</t>
+          <t>-11,51; 71,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -0,12</t>
+          <t>-32,67; 11,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 39,25</t>
+          <t>-33,2; 35,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P52_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>108,89%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-29,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,68%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.305813128362818</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-11.37793171046841</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.907180137376859</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.687552309658631</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1658033674821768</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1102979628322549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 9,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,7; 3,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 4,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-38,88; 589,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-62,34; 30,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-60,47; 99,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6092250352777903</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-35.0367706423145</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.66405968990611</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3794228320580014</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4344478256969472</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4376009310491059</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.82652187106661</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.44165649210362</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.68297704211605</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>7.399336687231433</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2358566645367542</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.485134135348182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,74%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-31,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 6,98</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 4,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,08; 3,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-41,54; 157,58</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-46,53; 65,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-77,08; 50,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.7540271989351227</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.86659405228318</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-11.35794085677209</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.06509737813527189</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2008914491615965</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2557872886084417</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,37%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.488220545848456</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-31.68904887666881</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-38.85912308146926</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6007270090162867</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4717089264067479</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.644257394235498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 4,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 4,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 5,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-49,16; 67,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-49,92; 62,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-54,55; 86,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.70734728447074</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.603548725456106</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.596925079591859</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.119873318712232</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1949526949655093</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2672267648172418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>49,78%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>62,12%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.467151563240021</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.4809750657020384</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>13.33254277393587</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.103645642217879</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.007395968928041622</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2992348802378491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 7,49</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 3,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 6,93</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-20,31; 185,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-45,84; 45,99</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 184,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.93152576303566</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.8901015553826</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.555809366632113</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4986977781818613</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2795560639873969</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1613039909561333</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.790860516143394</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.96583565729123</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>32.42732462229396</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5910411549306283</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3640739245699217</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.028700315958123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>30,09%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 6,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 5,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 4,94</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-41,39; 200,04</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-38,04; 82,11</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-44,3; 88,68</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.902489224855398</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.811600174327782</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>20.0148423635052</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.5082494519581365</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1089518085250247</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5002217763566664</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>65,57%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.733420339234894</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-26.16348790895135</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.008661888938901042</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2133949082885476</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.328748592879575</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.005683818244938802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 7,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 2,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 5,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-67,39; 869,64</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-74,7; 187,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.437326672059333</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.58797347257131</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>39.28401852463272</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.892162605671831</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2387985771385749</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.377106727407574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,241 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>23,46%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-12,46%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.583351450435817</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.460970727982005</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.02735620006536488</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.3744434523121625</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.05522262534533763</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.0004451524394227858</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 3,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 2,11</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 71,83</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-32,67; 11,45</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-33,2; 35,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.632796956568681</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-26.52385878777746</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-22.84386372176261</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.377569761530663</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.2968852609861222</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3282578602470803</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.464525719531045</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.28880577808617</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.90883613079489</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.225592529736926</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.245988137227577</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.5499519222559559</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.549292327266951</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-46.43671151846321</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>51.68836658796953</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.5513264475521719</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.5279135153222224</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-2.311744770386601</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-83.69169317860032</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>27.43752571673937</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.6760243172233441</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.8636416315536978</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>7.063181048871167</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-4.494864927838854</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>77.09597464104719</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>5.902088397443547</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.08026243431759687</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.780524295260345</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-9.426566507495149</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.367651021452802</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.216372848686054</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1378966258146469</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1239858428787587</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.057306838930715</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-19.76088036242932</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.344990431322117</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1110939884724606</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2687204142383461</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1092619911179562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.78067084009971</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9917650203444333</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>15.74733858610798</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6704994604313742</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.01703217614379834</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4312037322993149</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1182,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
